--- a/extraerData/Template Asiento.xlsx
+++ b/extraerData/Template Asiento.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergio Nicolas\PycharmProjects\pythonProject\AsientosContables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicol\OneDrive\Documents\GitHub\Automatizar_trabajo\extraerData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3504A3EF-443F-4A0A-90EF-0F1E41A80C01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14F37308-6E27-4635-B1AD-2D958A58872B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ASIENTO" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_Regression_Int" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="Imprimir_área_IM" localSheetId="0">ASIENTO!$A$1:$D$38</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">ASIENTO!$A$1:$D$33</definedName>
-    <definedName name="Imprimir_área_IM" localSheetId="0">ASIENTO!$A$1:$D$38</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -139,9 +139,6 @@
     <t>mes_pagado</t>
   </si>
   <si>
-    <t>fecha_de_pago</t>
-  </si>
-  <si>
     <t>ROSARIO</t>
   </si>
   <si>
@@ -176,6 +173,9 @@
   </si>
   <si>
     <t>FIRMAT</t>
+  </si>
+  <si>
+    <t>____/_____/__________</t>
   </si>
 </sst>
 </file>
@@ -480,7 +480,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Moneda" xfId="1" builtinId="4"/>
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -497,7 +497,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -817,14 +817,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr syncVertical="1" syncRef="A1" transitionEvaluation="1"/>
+  <sheetPr syncVertical="1" syncRef="A13" transitionEvaluation="1"/>
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.75" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.75" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.9140625" customWidth="1"/>
     <col min="2" max="2" width="33.9140625" customWidth="1"/>
@@ -840,13 +840,13 @@
       <c r="C1" s="26"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="20.149999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -859,13 +859,13 @@
       <c r="C4" s="28"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="20.149999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -885,7 +885,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="20.149999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="14"/>
       <c r="B8" s="18" t="s">
         <v>25</v>
@@ -896,7 +896,7 @@
       </c>
       <c r="D8" s="20"/>
     </row>
-    <row r="9" spans="1:4" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="20.149999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A9" s="15">
         <v>405</v>
       </c>
@@ -905,10 +905,10 @@
       </c>
       <c r="C9" s="23"/>
       <c r="D9" s="20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="15">
         <v>406</v>
       </c>
@@ -917,10 +917,10 @@
       </c>
       <c r="C10" s="23"/>
       <c r="D10" s="20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="15">
         <v>1486</v>
       </c>
@@ -929,10 +929,10 @@
       </c>
       <c r="C11" s="23"/>
       <c r="D11" s="20" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="15">
         <v>401</v>
       </c>
@@ -941,10 +941,10 @@
       </c>
       <c r="C12" s="23"/>
       <c r="D12" s="20" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="15">
         <v>404</v>
       </c>
@@ -953,10 +953,10 @@
       </c>
       <c r="C13" s="23"/>
       <c r="D13" s="20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="15">
         <v>400</v>
       </c>
@@ -965,10 +965,10 @@
       </c>
       <c r="C14" s="23"/>
       <c r="D14" s="20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="15">
         <v>399</v>
       </c>
@@ -977,10 +977,10 @@
       </c>
       <c r="C15" s="23"/>
       <c r="D15" s="20" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="15">
         <v>402</v>
       </c>
@@ -989,10 +989,10 @@
       </c>
       <c r="C16" s="23"/>
       <c r="D16" s="20" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="15">
         <v>397</v>
       </c>
@@ -1001,10 +1001,10 @@
       </c>
       <c r="C17" s="23"/>
       <c r="D17" s="20" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="15">
         <v>407</v>
       </c>
@@ -1013,10 +1013,10 @@
       </c>
       <c r="C18" s="23"/>
       <c r="D18" s="20" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="15">
         <v>403</v>
       </c>
@@ -1025,10 +1025,10 @@
       </c>
       <c r="C19" s="23"/>
       <c r="D19" s="20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="15">
         <v>396</v>
       </c>
@@ -1037,16 +1037,16 @@
       </c>
       <c r="C20" s="23"/>
       <c r="D20" s="20" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="16"/>
       <c r="B21" s="13"/>
       <c r="C21" s="23"/>
       <c r="D21" s="20"/>
     </row>
-    <row r="22" spans="1:4" ht="24.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="24.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="17"/>
       <c r="B22" s="9" t="s">
         <v>4</v>
@@ -1060,13 +1060,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="20.149999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A23" s="17"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1080,7 +1080,7 @@
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="1:4" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>22</v>
       </c>
@@ -1090,7 +1090,7 @@
       </c>
       <c r="D26" s="2"/>
     </row>
-    <row r="27" spans="1:4" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>23</v>
       </c>
@@ -1100,40 +1100,40 @@
       </c>
       <c r="D27" s="2"/>
     </row>
-    <row r="28" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
     </row>
-    <row r="29" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="8" t="s">
         <v>27</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="D30" s="6"/>
     </row>
-    <row r="31" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
     </row>
-    <row r="32" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
     </row>
-    <row r="33" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="6"/>
       <c r="B33" s="7" t="s">
         <v>5</v>
